--- a/mySystem/mySystem/xls/caigou/表93. PALL AUSTAR采购订单.xlsx
+++ b/mySystem/mySystem/xls/caigou/表93. PALL AUSTAR采购订单.xlsx
@@ -2,17 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="表93" sheetId="2" r:id="rId1"/>
+    <sheet name="表93 (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="表93" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表93!$A$1:$R$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">表93!$A$1:$R$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表93 (2)'!$A$1:$R$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -400,8 +402,387 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可参考U8供应商 导入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+YY-代表年份后两位
+MM-代表月份
+DD-代表日期
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有筛选</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有筛选</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考U8系统存货名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考U8系统规格型号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+由系统采购申请导出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+由系统采购申请导出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+YY-代表年份后两位
+MM-代表月份
+DD-代表日期</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考U8系统中主计量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有筛选</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有筛选，是否已提供</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有筛选</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有筛选，是否已提供</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>审核日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -586,12 +967,19 @@
     <t>表93. PALL AUSTAR采购订单</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>组件订单需求流水号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAP0YYXXX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +1058,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -703,7 +1106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1034,6 +1437,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1041,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1092,71 +1538,155 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1439,13 +1969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
@@ -1456,49 +1986,49 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="39"/>
-    </row>
-    <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+    <row r="1" spans="1:18" ht="18.75">
+      <c r="A1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" ht="20.25">
+      <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1518,43 +2048,43 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:18" ht="29.25" thickBot="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="31" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="31" t="s">
+      <c r="P4" s="62"/>
+      <c r="Q4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="64"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" thickBot="1">
       <c r="A5" s="10"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1574,218 +2104,782 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:18" ht="86.25" thickBot="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="30" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18" ht="30" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="30" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" ht="30" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="36"/>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="36"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" ht="30" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="1:18" ht="30" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="36"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" thickBot="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" ht="46.5" thickBot="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="61"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" thickBot="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
+      <formula1>"颗粒料,Tyvek,辅材,3D"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4">
+      <formula1>"人民币,美元,欧元"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7:R14 O7:O14">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:Q14">
+      <formula1>"付款编辑中,付款已申请、待审批,付款申请已批准、待支付,已支付"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N14">
+      <formula1>"寻货议价中,编辑合同中,合同审批中,合同盖章中,待发货,已发货,已到货,已验收,待退货,退货中,已退货"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75">
+      <c r="A1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" ht="20.25">
+      <c r="A2" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" thickBot="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="29.25" thickBot="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" thickBot="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" ht="86.25" thickBot="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="23" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="21"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="17"/>
@@ -1794,7 +2888,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="13"/>
@@ -1814,7 +2908,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="13"/>
@@ -1834,7 +2928,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -1854,7 +2948,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
@@ -1874,7 +2968,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
@@ -1894,7 +2988,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -1914,7 +3008,7 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -1934,7 +3028,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="14.25" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1954,7 +3048,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="46.5" thickBot="1">
       <c r="A22" s="10"/>
       <c r="B22" s="7" t="s">
         <v>4</v>
@@ -1984,7 +3078,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="14.25" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2036,7 +3130,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>